--- a/reports/corpus_1500-unigram_bigram-fold-2.xlsx
+++ b/reports/corpus_1500-unigram_bigram-fold-2.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9679715302491103</v>
+        <v>0.9697508896797153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9878542510121457</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9014373716632443</v>
+        <v>0.944558521560575</v>
       </c>
       <c r="H2" t="n">
         <v>0.9416058394160584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9481268011527377</v>
+        <v>0.9510086455331412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7160804020100503</v>
+        <v>0.8140703517587939</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -588,34 +588,34 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9515250544662309</v>
+        <v>0.9547930283224401</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4918144611186903</v>
+        <v>0.6534788540245566</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7793103448275862</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.8227272727272728</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6154434250764526</v>
+        <v>0.786697247706422</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7863796576032226</v>
+        <v>0.8617824773413897</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7143630396168726</v>
+        <v>0.8563784386817263</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8579604801331946</v>
+        <v>0.8885022957978626</v>
       </c>
     </row>
     <row r="3">
@@ -631,28 +631,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9662522202486679</v>
+        <v>0.9819819819819819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8160535117056856</v>
+        <v>0.8821428571428571</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9484536082474226</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9626865671641791</v>
+        <v>0.9699248120300752</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9909638554216867</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9076433121019108</v>
+        <v>0.8925619834710744</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -661,34 +661,34 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5393640012349491</v>
+        <v>0.6652751423149905</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9826086956521739</v>
+        <v>0.9712230215827338</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9526315789473684</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9179019384264538</v>
+        <v>0.9295392953929539</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7863796576032226</v>
+        <v>0.8617824773413897</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9488066039827904</v>
+        <v>0.9248122470426248</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7863796576032226</v>
+        <v>0.8617824773413897</v>
       </c>
     </row>
     <row r="4">
@@ -704,28 +704,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967111111111111</v>
+        <v>0.9758281110116384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8937728937728938</v>
+        <v>0.9373814041745731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.6250000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9310710498409331</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9520295202952029</v>
+        <v>0.9555555555555555</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9690721649484537</v>
+        <v>0.9663250366032211</v>
       </c>
       <c r="K4" t="n">
-        <v>0.800561797752809</v>
+        <v>0.8515111695137977</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -734,34 +734,34 @@
         <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6884729064039409</v>
+        <v>0.7841646164169089</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6593507087334248</v>
+        <v>0.7904290429042904</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8692307692307691</v>
+        <v>0.9507042253521125</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8232189973614775</v>
+        <v>0.8829268292682926</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4927536231884058</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="S4" t="n">
-        <v>0.736842105263158</v>
+        <v>0.8521739130434781</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7863796576032226</v>
+        <v>0.8617824773413897</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7639532410277111</v>
+        <v>0.8794403755226792</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7858437485731596</v>
+        <v>0.8607353349384537</v>
       </c>
     </row>
     <row r="5">
@@ -777,28 +777,28 @@
         <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E5" t="n">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="H5" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -807,28 +807,28 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3239</v>
+        <v>2635</v>
       </c>
       <c r="O5" t="n">
-        <v>721</v>
+        <v>958</v>
       </c>
       <c r="P5" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>877</v>
+        <v>1107</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7863796576032226</v>
+        <v>0.8617824773413897</v>
       </c>
       <c r="V5" t="n">
         <v>7944</v>
